--- a/src/data/profiles/xlsx/bluff/profile 21-24 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 21-24 graph.xlsx
@@ -4752,11 +4752,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41448899"/>
-        <c:axId val="80903566"/>
+        <c:axId val="36581555"/>
+        <c:axId val="71099989"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41448899"/>
+        <c:axId val="36581555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,12 +4791,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80903566"/>
+        <c:crossAx val="71099989"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80903566"/>
+        <c:axId val="71099989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,7 +4840,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41448899"/>
+        <c:crossAx val="36581555"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
